--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Cd9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N2">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O2">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P2">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q2">
-        <v>320.8553389476098</v>
+        <v>295.6666326741901</v>
       </c>
       <c r="R2">
-        <v>2887.698050528489</v>
+        <v>2660.99969406771</v>
       </c>
       <c r="S2">
-        <v>0.04579355939309236</v>
+        <v>0.05559858971965417</v>
       </c>
       <c r="T2">
-        <v>0.0553795866971496</v>
+        <v>0.06037505722158815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>148.768397</v>
       </c>
       <c r="O3">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P3">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q3">
-        <v>419.8948994945342</v>
+        <v>332.9066291551469</v>
       </c>
       <c r="R3">
-        <v>3779.054095450808</v>
+        <v>2996.159662396322</v>
       </c>
       <c r="S3">
-        <v>0.05992882051434146</v>
+        <v>0.06260137953999778</v>
       </c>
       <c r="T3">
-        <v>0.07247380101736563</v>
+        <v>0.06797945579079397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N4">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O4">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P4">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q4">
-        <v>497.7223277129966</v>
+        <v>346.168694022912</v>
       </c>
       <c r="R4">
-        <v>4479.500949416969</v>
+        <v>3115.518246206208</v>
       </c>
       <c r="S4">
-        <v>0.07103661435135074</v>
+        <v>0.06509524263421726</v>
       </c>
       <c r="T4">
-        <v>0.08590680425981526</v>
+        <v>0.07068756633416415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N5">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O5">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P5">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q5">
-        <v>306.7055976834294</v>
+        <v>200.7980461577025</v>
       </c>
       <c r="R5">
-        <v>1840.233586100576</v>
+        <v>1204.788276946215</v>
       </c>
       <c r="S5">
-        <v>0.04377406045284273</v>
+        <v>0.03775903991551374</v>
       </c>
       <c r="T5">
-        <v>0.03529156222057642</v>
+        <v>0.0273352760327959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N6">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O6">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P6">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q6">
-        <v>369.342974430224</v>
+        <v>473.9813467059779</v>
       </c>
       <c r="R6">
-        <v>3324.086769872016</v>
+        <v>4265.832120353802</v>
       </c>
       <c r="S6">
-        <v>0.05271387875753424</v>
+        <v>0.08912975465619818</v>
       </c>
       <c r="T6">
-        <v>0.06374854581048905</v>
+        <v>0.09678688011059049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N7">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O7">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P7">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q7">
-        <v>12.66939753435711</v>
+        <v>14.72540215455334</v>
       </c>
       <c r="R7">
-        <v>114.024577809214</v>
+        <v>132.52861939098</v>
       </c>
       <c r="S7">
-        <v>0.00180821927528846</v>
+        <v>0.002769036145347189</v>
       </c>
       <c r="T7">
-        <v>0.00218673624523713</v>
+        <v>0.003006923674988178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>148.768397</v>
       </c>
       <c r="O8">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P8">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q8">
         <v>16.58010560707489</v>
@@ -948,10 +948,10 @@
         <v>149.220950463674</v>
       </c>
       <c r="S8">
-        <v>0.002366368760924069</v>
+        <v>0.003117803591222639</v>
       </c>
       <c r="T8">
-        <v>0.002861723912485141</v>
+        <v>0.003385653686089768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N9">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O9">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P9">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q9">
-        <v>19.65322457218378</v>
+        <v>17.24061043581156</v>
       </c>
       <c r="R9">
-        <v>176.879021149654</v>
+        <v>155.165493922304</v>
       </c>
       <c r="S9">
-        <v>0.002804974695649472</v>
+        <v>0.003242008127421512</v>
       </c>
       <c r="T9">
-        <v>0.003392143816723329</v>
+        <v>0.003520528617594316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N10">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O10">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P10">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q10">
-        <v>12.11067628112133</v>
+        <v>10.00056027552833</v>
       </c>
       <c r="R10">
-        <v>72.664057686728</v>
+        <v>60.00336165317</v>
       </c>
       <c r="S10">
-        <v>0.00172847668793381</v>
+        <v>0.001880553928919246</v>
       </c>
       <c r="T10">
-        <v>0.001393534023300105</v>
+        <v>0.001361408045770938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N11">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O11">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P11">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q11">
-        <v>14.583995968172</v>
+        <v>23.60620094623066</v>
       </c>
       <c r="R11">
-        <v>131.255963713548</v>
+        <v>212.455808516076</v>
       </c>
       <c r="S11">
-        <v>0.002081477240639443</v>
+        <v>0.004439024685939009</v>
       </c>
       <c r="T11">
-        <v>0.002517195667553276</v>
+        <v>0.004820380710607655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N12">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O12">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P12">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q12">
-        <v>156.8779236644888</v>
+        <v>293.3998524998067</v>
       </c>
       <c r="R12">
-        <v>1411.901312980399</v>
+        <v>2640.598672498261</v>
       </c>
       <c r="S12">
-        <v>0.02239014796623908</v>
+        <v>0.0551723333654613</v>
       </c>
       <c r="T12">
-        <v>0.02707710771758405</v>
+        <v>0.05991218124028672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>148.768397</v>
       </c>
       <c r="O13">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P13">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q13">
-        <v>205.3019912527232</v>
+        <v>330.3543420063931</v>
       </c>
       <c r="R13">
-        <v>1847.717921274509</v>
+        <v>2973.189078057538</v>
       </c>
       <c r="S13">
-        <v>0.02930139470575184</v>
+        <v>0.06212143506758014</v>
       </c>
       <c r="T13">
-        <v>0.03543509502123037</v>
+        <v>0.06745827935211973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N14">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O14">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P14">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q14">
-        <v>243.3546706412154</v>
+        <v>343.5147309243165</v>
       </c>
       <c r="R14">
-        <v>2190.192035770939</v>
+        <v>3091.632578318849</v>
       </c>
       <c r="S14">
-        <v>0.03473240183612642</v>
+        <v>0.0645961785223311</v>
       </c>
       <c r="T14">
-        <v>0.04200298216989314</v>
+        <v>0.07014562769031908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N15">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O15">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P15">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q15">
-        <v>149.9595970528913</v>
+        <v>199.2585926658817</v>
       </c>
       <c r="R15">
-        <v>899.7575823173481</v>
+        <v>1195.55155599529</v>
       </c>
       <c r="S15">
-        <v>0.02140274098829028</v>
+        <v>0.03746955360348018</v>
       </c>
       <c r="T15">
-        <v>0.01725533700701223</v>
+        <v>0.0271257053375436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N16">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O16">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P16">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q16">
-        <v>180.585304077302</v>
+        <v>470.3474854548013</v>
       </c>
       <c r="R16">
-        <v>1625.267736695718</v>
+        <v>4233.127369093212</v>
       </c>
       <c r="S16">
-        <v>0.0257737454982286</v>
+        <v>0.08844642573614059</v>
       </c>
       <c r="T16">
-        <v>0.03116899826626546</v>
+        <v>0.09604484649323312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H17">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I17">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J17">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N17">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O17">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P17">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q17">
-        <v>445.4423667616547</v>
+        <v>114.85852437714</v>
       </c>
       <c r="R17">
-        <v>2672.654200569928</v>
+        <v>689.15114626284</v>
       </c>
       <c r="S17">
-        <v>0.06357504146699013</v>
+        <v>0.02159855481455877</v>
       </c>
       <c r="T17">
-        <v>0.05125552686676346</v>
+        <v>0.01563605587129515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H18">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I18">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J18">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>148.768397</v>
       </c>
       <c r="O18">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P18">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q18">
-        <v>582.9386490356412</v>
+        <v>129.325260122482</v>
       </c>
       <c r="R18">
-        <v>3497.631894213847</v>
+        <v>775.9515607348919</v>
       </c>
       <c r="S18">
-        <v>0.08319897600800549</v>
+        <v>0.02431895007192369</v>
       </c>
       <c r="T18">
-        <v>0.0670767529468263</v>
+        <v>0.01760545857445621</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H19">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I19">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J19">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N19">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O19">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P19">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q19">
-        <v>690.9862007401347</v>
+        <v>134.477215171072</v>
       </c>
       <c r="R19">
-        <v>4145.917204440808</v>
+        <v>806.863291026432</v>
       </c>
       <c r="S19">
-        <v>0.09861988810031086</v>
+        <v>0.02528774872333019</v>
       </c>
       <c r="T19">
-        <v>0.07950941450423253</v>
+        <v>0.01830681058487946</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H20">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I20">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J20">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N20">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O20">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P20">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q20">
-        <v>425.798329487864</v>
+        <v>78.00463336321499</v>
       </c>
       <c r="R20">
-        <v>1703.193317951456</v>
+        <v>312.01853345286</v>
       </c>
       <c r="S20">
-        <v>0.06077137801364694</v>
+        <v>0.01466837014162684</v>
       </c>
       <c r="T20">
-        <v>0.03266343653770735</v>
+        <v>0.007079345726122841</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H21">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I21">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J21">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N21">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O21">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P21">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q21">
-        <v>512.7575848250159</v>
+        <v>184.128988694268</v>
       </c>
       <c r="R21">
-        <v>3076.545508950096</v>
+        <v>1104.773932165608</v>
       </c>
       <c r="S21">
-        <v>0.07318249710900714</v>
+        <v>0.0346245093851644</v>
       </c>
       <c r="T21">
-        <v>0.05900125835852075</v>
+        <v>0.02506606427656368</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H22">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I22">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J22">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.89292233333334</v>
+        <v>44.04223000000001</v>
       </c>
       <c r="N22">
-        <v>113.678767</v>
+        <v>132.12669</v>
       </c>
       <c r="O22">
-        <v>0.167590387243122</v>
+        <v>0.1792438957545786</v>
       </c>
       <c r="P22">
-        <v>0.1770445447021447</v>
+        <v>0.1868246872369915</v>
       </c>
       <c r="Q22">
-        <v>238.3871405823304</v>
+        <v>234.5471307568934</v>
       </c>
       <c r="R22">
-        <v>2145.484265240973</v>
+        <v>2110.924176812041</v>
       </c>
       <c r="S22">
-        <v>0.03402341914151193</v>
+        <v>0.04410538170955722</v>
       </c>
       <c r="T22">
-        <v>0.04114558717541047</v>
+        <v>0.04789446922883331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H23">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I23">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J23">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>148.768397</v>
       </c>
       <c r="O23">
-        <v>0.2193211091282201</v>
+        <v>0.2018201397722426</v>
       </c>
       <c r="P23">
-        <v>0.2316935150513456</v>
+        <v>0.2103557520458098</v>
       </c>
       <c r="Q23">
-        <v>311.9709485399936</v>
+        <v>264.0889638849835</v>
       </c>
       <c r="R23">
-        <v>2807.738536859943</v>
+        <v>2376.800674964852</v>
       </c>
       <c r="S23">
-        <v>0.04452554913919716</v>
+        <v>0.04966057150151832</v>
       </c>
       <c r="T23">
-        <v>0.05384614215343813</v>
+        <v>0.05392690464235012</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H24">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I24">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J24">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.78086233333334</v>
+        <v>51.56497066666667</v>
       </c>
       <c r="N24">
-        <v>176.342587</v>
+        <v>154.694912</v>
       </c>
       <c r="O24">
-        <v>0.2599722289632498</v>
+        <v>0.2098600871655206</v>
       </c>
       <c r="P24">
-        <v>0.2746378576309975</v>
+        <v>0.2187357342528896</v>
       </c>
       <c r="Q24">
-        <v>369.7946959419504</v>
+        <v>274.6095262985103</v>
       </c>
       <c r="R24">
-        <v>3328.152263477553</v>
+        <v>2471.485736686592</v>
       </c>
       <c r="S24">
-        <v>0.05277834997981225</v>
+        <v>0.05163890915822052</v>
       </c>
       <c r="T24">
-        <v>0.06382651288033327</v>
+        <v>0.05607520102593257</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H25">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I25">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J25">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.221842</v>
+        <v>29.9106925</v>
       </c>
       <c r="N25">
-        <v>72.443684</v>
+        <v>59.821385</v>
       </c>
       <c r="O25">
-        <v>0.160199640292699</v>
+        <v>0.1217310987299521</v>
       </c>
       <c r="P25">
-        <v>0.1128245791962719</v>
+        <v>0.08458632803643724</v>
       </c>
       <c r="Q25">
-        <v>227.874252216466</v>
+        <v>159.2895524324433</v>
       </c>
       <c r="R25">
-        <v>1367.245513298796</v>
+        <v>955.73731459466</v>
       </c>
       <c r="S25">
-        <v>0.03252298414998521</v>
+        <v>0.02995358114041206</v>
       </c>
       <c r="T25">
-        <v>0.02622070940767582</v>
+        <v>0.02168459289420396</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H26">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I26">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J26">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>43.61929799999999</v>
+        <v>70.603826</v>
       </c>
       <c r="N26">
-        <v>130.857894</v>
+        <v>211.811478</v>
       </c>
       <c r="O26">
-        <v>0.1929166343727092</v>
+        <v>0.2873447785777061</v>
       </c>
       <c r="P26">
-        <v>0.2037995034192402</v>
+        <v>0.2994974984278718</v>
       </c>
       <c r="Q26">
-        <v>274.412187926754</v>
+        <v>376.0010519167386</v>
       </c>
       <c r="R26">
-        <v>2469.709691340785</v>
+        <v>3384.009467250648</v>
       </c>
       <c r="S26">
-        <v>0.03916503576729978</v>
+        <v>0.07070506411426397</v>
       </c>
       <c r="T26">
-        <v>0.04736350531641165</v>
+        <v>0.07677932683687679</v>
       </c>
     </row>
   </sheetData>
